--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EKBANA-QA-AMISH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Documents\DBA(Digital barrier analysis)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Search and Filter Project" sheetId="2" r:id="rId2"/>
+    <sheet name="Manage Account" sheetId="3" r:id="rId3"/>
+    <sheet name="Setting" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>S.N</t>
   </si>
@@ -38,10 +36,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve"> Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Steps Descriptions</t>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Steps Descriptions</t>
   </si>
   <si>
     <t>Expected Result</t>
@@ -53,18 +51,16 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>DBA_CreateProject_Normal</t>
+  </si>
+  <si>
+    <t>Validate that the user is able to create a project by entering all the correct values.</t>
+  </si>
+  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>DBA_CreateProject_Normal</t>
-  </si>
-  <si>
-    <t>Validate that the user is able to create a project by entering all the correct values.</t>
-  </si>
-  <si>
-    <t>Precondition:
--&gt; The User is an Org. Admin
--&gt; The User is in Project List page</t>
+    <t>Precondition: -&gt; The User is an Org. Admin -&gt; The User is in Project List page</t>
   </si>
   <si>
     <t>The user should be able to create project.</t>
@@ -79,12 +75,12 @@
     <t>Fill up the fields with correct values and press save.</t>
   </si>
   <si>
+    <t>The project should be created successfully and user should get a success message for the creation of project.</t>
+  </si>
+  <si>
     <t>Verify that the project is listed in the project listing page with correct values.</t>
   </si>
   <si>
-    <t>The user should be created successfully and user should get a success message for the creation of project.</t>
-  </si>
-  <si>
     <t>The project is listed in the project list page with correct values.</t>
   </si>
   <si>
@@ -97,7 +93,417 @@
     <t>The user should not be able to create project with invalid field entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the user is not able </t>
+    <t>Fill up the form but leave some or all of the fields blank and press Create button.</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>DBA_Filter_Normal</t>
+  </si>
+  <si>
+    <t>Validate that the user is working correctly.</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; The User  can be Org. Admin or general user.
+ -&gt; The User is in Project List page</t>
+  </si>
+  <si>
+    <t>By default the project list displays all the project that the user is assigned to.</t>
+  </si>
+  <si>
+    <t>Check the box of the country that you want to be filtered.</t>
+  </si>
+  <si>
+    <t>The Project list should be filtered according to the Country selected. The Total Project number should also change according to the projects listed in the list.</t>
+  </si>
+  <si>
+    <t>DBA_Filter_clear</t>
+  </si>
+  <si>
+    <t>Validate that the Clear feature in the filter is working</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; The User is can be Org. Admin or general user.
+ -&gt; The User is in Project List page
+-&gt; The filter should be used.</t>
+  </si>
+  <si>
+    <t>Click on the Clear button.</t>
+  </si>
+  <si>
+    <t>The Filter applied should be reset and all the projects should be displayed in the project list.</t>
+  </si>
+  <si>
+    <t>DBA_Search_Normal</t>
+  </si>
+  <si>
+    <t>Validate that the search is working properly.</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; The User can be Org. Admin or general user.
+ -&gt; The User is in Project List page
+-&gt; There should be some project listed in the project list.</t>
+  </si>
+  <si>
+    <t>The projects should be searched on the basis of project code, project name, country and site-name</t>
+  </si>
+  <si>
+    <t>Type a key word in the search bar.</t>
+  </si>
+  <si>
+    <t>All the projects having the keyword in the project code, project name, country and site-name field should be displayed in the list.The Total Project number should also change according to the projects listed in the list.</t>
+  </si>
+  <si>
+    <t>Again Type a key word that doesn't match any of the project in the list</t>
+  </si>
+  <si>
+    <t>The project list should be empty.</t>
+  </si>
+  <si>
+    <t>DBA_SearchFilter_Combination</t>
+  </si>
+  <si>
+    <t>Validate that the combination of search and filter is working</t>
+  </si>
+  <si>
+    <t>The combination of country wise filter and search should work as expected.</t>
+  </si>
+  <si>
+    <t>Now Type a keyword in the search bar.</t>
+  </si>
+  <si>
+    <t>The result should display the result of the combination of the filter selected and the keyword typed.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_OrgAdmin</t>
+  </si>
+  <si>
+    <t>Validate that the manage account module is accessible by the org. admin.</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; Login as an Organization administrator. 
+-&gt; User should be in the project list page.</t>
+  </si>
+  <si>
+    <t>All the projects in the system should be listed in the project list.</t>
+  </si>
+  <si>
+    <t>Click on any one of the project in the project list.</t>
+  </si>
+  <si>
+    <t>The user should be directed to the Project detail page. The project detail page should contain the manage account button for the Organization administrator user.</t>
+  </si>
+  <si>
+    <t>Click on the Manage account on the the top of the project detail page.</t>
+  </si>
+  <si>
+    <t>The user should be directed to the  manage account page.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_ProjectAdmin</t>
+  </si>
+  <si>
+    <t>Validate that the manage account module is accessible by the project admin</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; Login as an Project administrator. 
+-&gt; User should be in the project list page.</t>
+  </si>
+  <si>
+    <t>Projects that the logged in user is an admin or a general user of should be listed in the project list.</t>
+  </si>
+  <si>
+    <t>Click on any one of the project that  in the project list.</t>
+  </si>
+  <si>
+    <t>The user should be directed to the Project detail page. The project detail page should contain the manage account button if the user is an Project administrator for that project.</t>
+  </si>
+  <si>
+    <t>The user should be directed to the manage account page.</t>
+  </si>
+  <si>
+    <t>DBA_ManagaeAccount_GeneralUser</t>
+  </si>
+  <si>
+    <t>Validate that the manage account module is not accessible by the general user(Field and in-house users).</t>
+  </si>
+  <si>
+    <t>Precondition: 
+-&gt; Login as an General user. 
+-&gt; User should be in the project list page.</t>
+  </si>
+  <si>
+    <t>Projects that the logged in user is a general user of should be listed in the project list.</t>
+  </si>
+  <si>
+    <t>The user should be directed to the project detail page. The project detail page should not contain the manage account button for the general user.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_ProjectList</t>
+  </si>
+  <si>
+    <t>Validate that all the projects are listed in the manage account page.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be org admin or project admin.
+-&gt;The user should be in Manage account page.</t>
+  </si>
+  <si>
+    <t>Check the projects listed in the manage account page.</t>
+  </si>
+  <si>
+    <t>For the org admin all the projects in the system should be listed in the project list. For the project admin only the project that they are admin to should appear in the list.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_RoleEdit</t>
+  </si>
+  <si>
+    <t>Validate that the admin user can edit the roles of general user in a project.</t>
+  </si>
+  <si>
+    <t>Select one project in the list</t>
+  </si>
+  <si>
+    <t>All the users assigned to that project along with their roles should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Change the role of some of the user and click on save.</t>
+  </si>
+  <si>
+    <t>The changes should be saved and a success message should be displayed.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_SelfRoleEdit</t>
+  </si>
+  <si>
+    <t>Validate that the admin is not able to edit their own role</t>
+  </si>
+  <si>
+    <t>Check weather the role of the current user is changeable or not.</t>
+  </si>
+  <si>
+    <t>The role of the current admin user should not be editable.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_Normal</t>
+  </si>
+  <si>
+    <t>Validate that the setting page is accessible to org admin and project admin only.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be org admin or project admin
+-&gt; The user should be in project detail page.</t>
+  </si>
+  <si>
+    <t>Check weather there is setting button in the project detail page.</t>
+  </si>
+  <si>
+    <t>The setting page should be accessible to the org admin and project admin but no to the general user.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be org admin or project admin
+-&gt; The user should be in settings page.</t>
+  </si>
+  <si>
+    <t>Click in the Edit button of work type.</t>
+  </si>
+  <si>
+    <t>Set the name of the Work Type and click on add button</t>
+  </si>
+  <si>
+    <t>The Created Work Type should be added in the Work Type list with a success message. The latest created project should appear on the top of the list and rest of the work types should be arranged alphabetically.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of any one of the work type in the list</t>
+  </si>
+  <si>
+    <t>Change the name of the work type and click on update button.</t>
+  </si>
+  <si>
+    <t>The edited work type should appear in the work type list.</t>
+  </si>
+  <si>
+    <t>Validate that the Work Type can be created.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkTypeCreate</t>
+  </si>
+  <si>
+    <t>A popup module should appear with Add Work type form and list.</t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected work type can be edited.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkTypeEdit</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkTypeDelete</t>
+  </si>
+  <si>
+    <t>Click on the delete button of any one of the work type.</t>
+  </si>
+  <si>
+    <t>A confirmation popup should appear containing the message about the work operation and potential incidents under the to be deleted work type.</t>
+  </si>
+  <si>
+    <t>Click on OK button</t>
+  </si>
+  <si>
+    <t>The selected work type should be deleted from the list.</t>
+  </si>
+  <si>
+    <t>Validate that the work operation can be created.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of work operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A popup module should appear where you can choose the work type under which you want to add work operation. </t>
+  </si>
+  <si>
+    <t>Select a work type</t>
+  </si>
+  <si>
+    <t>If the selected work type pervioiusly contains work operation it should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Set the name of the work operation and clickon ADD.</t>
+  </si>
+  <si>
+    <t>The added work operation should appear in the list.The latest added work operation should appear on the top of the list and rest of the work operation should be arranged alphabetically.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkOperationEdit</t>
+  </si>
+  <si>
+    <t>Validate that the Work Operation can be edited</t>
+  </si>
+  <si>
+    <t>Click in the Edit button of work operaton.</t>
+  </si>
+  <si>
+    <t>Click the edit button of any one of the work operation in the list</t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected work operation can be edited.</t>
+  </si>
+  <si>
+    <t>Change the name of the work operation and click on update button.</t>
+  </si>
+  <si>
+    <t>The edited work operation should appear in the work operation list.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkOperationDelete</t>
+  </si>
+  <si>
+    <t>DBA_Settings_WorkOperationCreate</t>
+  </si>
+  <si>
+    <t>Validate that the Work Operation can be deteted</t>
+  </si>
+  <si>
+    <t>Click the delete button of any one of the work operation in the list</t>
+  </si>
+  <si>
+    <t>A confirmation popup should appear containing the message about the potential incidents under the to be deleted work operation.</t>
+  </si>
+  <si>
+    <t>The selected work operation should be removed from the work operation list.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_PotentialIncidentCreate</t>
+  </si>
+  <si>
+    <t>Validate that potential incident can be created.</t>
+  </si>
+  <si>
+    <t>Click on the edit button of potential incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A popup module should appear where you can choose the work type and work operation under which you want to add potential incident. </t>
+  </si>
+  <si>
+    <t>Select a work type and a work operation</t>
+  </si>
+  <si>
+    <t>If the selected work type and work operation pervioiusly contains potential incident it should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Set the name of the potential incident and click on add</t>
+  </si>
+  <si>
+    <t>The potential incident should be added in the potential incident list.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_PotentialIncidentEdit</t>
+  </si>
+  <si>
+    <t>Validate that the potential incident can be edited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the edit button of any one of the potential incident in the list </t>
+  </si>
+  <si>
+    <t>A popup module should appear where the name of selected potential incident can be edited.</t>
+  </si>
+  <si>
+    <t>Change the name of the potential incident and click on update</t>
+  </si>
+  <si>
+    <t>The changed potential should appear in the potential incident list.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_PotentialIncidentDelete</t>
+  </si>
+  <si>
+    <t>Validate that the potential incident can be deleted</t>
+  </si>
+  <si>
+    <t>Click on the delete button of any one of the potential incident in the list</t>
+  </si>
+  <si>
+    <t>A confirmation popup should appear.</t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>The selected Potential incident should be removed from the potential incident list.</t>
+  </si>
+  <si>
+    <t>DBA_Settings_RiskMatrixEdit</t>
+  </si>
+  <si>
+    <t>Verify that the risk matrix can be edited</t>
+  </si>
+  <si>
+    <t>Click on the edit button of the risk matrix table.</t>
+  </si>
+  <si>
+    <t>Change the name of the consequences and probability and click on the save button</t>
+  </si>
+  <si>
+    <t>The edited consequences and probability should be saved and appear in the table.</t>
+  </si>
+  <si>
+    <t>The "Save" button should appear and the name of the consequence and the probability should be editable. The color in each box of the table should also be editable.</t>
   </si>
 </sst>
 </file>
@@ -107,24 +513,21 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +540,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,19 +556,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -188,44 +627,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="085296"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="993366"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -255,12 +694,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -299,188 +738,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" customWidth="1"/>
-    <col min="7" max="7" width="67" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625"/>
+    <col min="2" max="2" width="36.42578125"/>
+    <col min="3" max="3" width="38.140625"/>
+    <col min="4" max="4" width="8.5703125"/>
+    <col min="5" max="5" width="7.140625"/>
+    <col min="6" max="6" width="45"/>
+    <col min="7" max="7" width="72.85546875"/>
+    <col min="8" max="8" width="19"/>
+    <col min="9" max="9" width="18.7109375"/>
+    <col min="10" max="256" width="9.5703125"/>
+    <col min="257" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -512,18 +929,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -554,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -562,13 +979,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -579,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -596,10 +1013,4416 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625"/>
+    <col min="2" max="2" width="19.42578125"/>
+    <col min="3" max="3" width="23.5703125"/>
+    <col min="4" max="4" width="8.28515625"/>
+    <col min="5" max="5" width="7.5703125"/>
+    <col min="6" max="6" width="35.5703125"/>
+    <col min="7" max="7" width="40.140625"/>
+    <col min="8" max="8" width="15.5703125"/>
+    <col min="9" max="9" width="10.85546875"/>
+    <col min="10" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:256" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3"/>
+      <c r="GC1" s="3"/>
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3"/>
+      <c r="GF1" s="3"/>
+      <c r="GG1" s="3"/>
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3"/>
+      <c r="GJ1" s="3"/>
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3"/>
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3"/>
+      <c r="GQ1" s="3"/>
+      <c r="GR1" s="3"/>
+      <c r="GS1" s="3"/>
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3"/>
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3"/>
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3"/>
+      <c r="HA1" s="3"/>
+      <c r="HB1" s="3"/>
+      <c r="HC1" s="3"/>
+      <c r="HD1" s="3"/>
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3"/>
+      <c r="HG1" s="3"/>
+      <c r="HH1" s="3"/>
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="3"/>
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3"/>
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3"/>
+      <c r="HS1" s="3"/>
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
+    </row>
+    <row r="2" spans="1:256" ht="67.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2" s="3"/>
+      <c r="DL2" s="3"/>
+      <c r="DM2" s="3"/>
+      <c r="DN2" s="3"/>
+      <c r="DO2" s="3"/>
+      <c r="DP2" s="3"/>
+      <c r="DQ2" s="3"/>
+      <c r="DR2" s="3"/>
+      <c r="DS2" s="3"/>
+      <c r="DT2" s="3"/>
+      <c r="DU2" s="3"/>
+      <c r="DV2" s="3"/>
+      <c r="DW2" s="3"/>
+      <c r="DX2" s="3"/>
+      <c r="DY2" s="3"/>
+      <c r="DZ2" s="3"/>
+      <c r="EA2" s="3"/>
+      <c r="EB2" s="3"/>
+      <c r="EC2" s="3"/>
+      <c r="ED2" s="3"/>
+      <c r="EE2" s="3"/>
+      <c r="EF2" s="3"/>
+      <c r="EG2" s="3"/>
+      <c r="EH2" s="3"/>
+      <c r="EI2" s="3"/>
+      <c r="EJ2" s="3"/>
+      <c r="EK2" s="3"/>
+      <c r="EL2" s="3"/>
+      <c r="EM2" s="3"/>
+      <c r="EN2" s="3"/>
+      <c r="EO2" s="3"/>
+      <c r="EP2" s="3"/>
+      <c r="EQ2" s="3"/>
+      <c r="ER2" s="3"/>
+      <c r="ES2" s="3"/>
+      <c r="ET2" s="3"/>
+      <c r="EU2" s="3"/>
+      <c r="EV2" s="3"/>
+      <c r="EW2" s="3"/>
+      <c r="EX2" s="3"/>
+      <c r="EY2" s="3"/>
+      <c r="EZ2" s="3"/>
+      <c r="FA2" s="3"/>
+      <c r="FB2" s="3"/>
+      <c r="FC2" s="3"/>
+      <c r="FD2" s="3"/>
+      <c r="FE2" s="3"/>
+      <c r="FF2" s="3"/>
+      <c r="FG2" s="3"/>
+      <c r="FH2" s="3"/>
+      <c r="FI2" s="3"/>
+      <c r="FJ2" s="3"/>
+      <c r="FK2" s="3"/>
+      <c r="FL2" s="3"/>
+      <c r="FM2" s="3"/>
+      <c r="FN2" s="3"/>
+      <c r="FO2" s="3"/>
+      <c r="FP2" s="3"/>
+      <c r="FQ2" s="3"/>
+      <c r="FR2" s="3"/>
+      <c r="FS2" s="3"/>
+      <c r="FT2" s="3"/>
+      <c r="FU2" s="3"/>
+      <c r="FV2" s="3"/>
+      <c r="FW2" s="3"/>
+      <c r="FX2" s="3"/>
+      <c r="FY2" s="3"/>
+      <c r="FZ2" s="3"/>
+      <c r="GA2" s="3"/>
+      <c r="GB2" s="3"/>
+      <c r="GC2" s="3"/>
+      <c r="GD2" s="3"/>
+      <c r="GE2" s="3"/>
+      <c r="GF2" s="3"/>
+      <c r="GG2" s="3"/>
+      <c r="GH2" s="3"/>
+      <c r="GI2" s="3"/>
+      <c r="GJ2" s="3"/>
+      <c r="GK2" s="3"/>
+      <c r="GL2" s="3"/>
+      <c r="GM2" s="3"/>
+      <c r="GN2" s="3"/>
+      <c r="GO2" s="3"/>
+      <c r="GP2" s="3"/>
+      <c r="GQ2" s="3"/>
+      <c r="GR2" s="3"/>
+      <c r="GS2" s="3"/>
+      <c r="GT2" s="3"/>
+      <c r="GU2" s="3"/>
+      <c r="GV2" s="3"/>
+      <c r="GW2" s="3"/>
+      <c r="GX2" s="3"/>
+      <c r="GY2" s="3"/>
+      <c r="GZ2" s="3"/>
+      <c r="HA2" s="3"/>
+      <c r="HB2" s="3"/>
+      <c r="HC2" s="3"/>
+      <c r="HD2" s="3"/>
+      <c r="HE2" s="3"/>
+      <c r="HF2" s="3"/>
+      <c r="HG2" s="3"/>
+      <c r="HH2" s="3"/>
+      <c r="HI2" s="3"/>
+      <c r="HJ2" s="3"/>
+      <c r="HK2" s="3"/>
+      <c r="HL2" s="3"/>
+      <c r="HM2" s="3"/>
+      <c r="HN2" s="3"/>
+      <c r="HO2" s="3"/>
+      <c r="HP2" s="3"/>
+      <c r="HQ2" s="3"/>
+      <c r="HR2" s="3"/>
+      <c r="HS2" s="3"/>
+      <c r="HT2" s="3"/>
+      <c r="HU2" s="3"/>
+      <c r="HV2" s="3"/>
+      <c r="HW2" s="3"/>
+      <c r="HX2" s="3"/>
+      <c r="HY2" s="3"/>
+      <c r="HZ2" s="3"/>
+      <c r="IA2" s="3"/>
+      <c r="IB2" s="3"/>
+      <c r="IC2" s="3"/>
+      <c r="ID2" s="3"/>
+      <c r="IE2" s="3"/>
+      <c r="IF2" s="3"/>
+      <c r="IG2" s="3"/>
+      <c r="IH2" s="3"/>
+      <c r="II2" s="3"/>
+      <c r="IJ2" s="3"/>
+      <c r="IK2" s="3"/>
+      <c r="IL2" s="3"/>
+      <c r="IM2" s="3"/>
+      <c r="IN2" s="3"/>
+      <c r="IO2" s="3"/>
+      <c r="IP2" s="3"/>
+      <c r="IQ2" s="3"/>
+      <c r="IR2" s="3"/>
+      <c r="IS2" s="3"/>
+      <c r="IT2" s="3"/>
+      <c r="IU2" s="3"/>
+      <c r="IV2" s="3"/>
+    </row>
+    <row r="3" spans="1:256" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
+      <c r="DM3" s="3"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
+      <c r="DQ3" s="3"/>
+      <c r="DR3" s="3"/>
+      <c r="DS3" s="3"/>
+      <c r="DT3" s="3"/>
+      <c r="DU3" s="3"/>
+      <c r="DV3" s="3"/>
+      <c r="DW3" s="3"/>
+      <c r="DX3" s="3"/>
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3"/>
+      <c r="EB3" s="3"/>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3"/>
+      <c r="EE3" s="3"/>
+      <c r="EF3" s="3"/>
+      <c r="EG3" s="3"/>
+      <c r="EH3" s="3"/>
+      <c r="EI3" s="3"/>
+      <c r="EJ3" s="3"/>
+      <c r="EK3" s="3"/>
+      <c r="EL3" s="3"/>
+      <c r="EM3" s="3"/>
+      <c r="EN3" s="3"/>
+      <c r="EO3" s="3"/>
+      <c r="EP3" s="3"/>
+      <c r="EQ3" s="3"/>
+      <c r="ER3" s="3"/>
+      <c r="ES3" s="3"/>
+      <c r="ET3" s="3"/>
+      <c r="EU3" s="3"/>
+      <c r="EV3" s="3"/>
+      <c r="EW3" s="3"/>
+      <c r="EX3" s="3"/>
+      <c r="EY3" s="3"/>
+      <c r="EZ3" s="3"/>
+      <c r="FA3" s="3"/>
+      <c r="FB3" s="3"/>
+      <c r="FC3" s="3"/>
+      <c r="FD3" s="3"/>
+      <c r="FE3" s="3"/>
+      <c r="FF3" s="3"/>
+      <c r="FG3" s="3"/>
+      <c r="FH3" s="3"/>
+      <c r="FI3" s="3"/>
+      <c r="FJ3" s="3"/>
+      <c r="FK3" s="3"/>
+      <c r="FL3" s="3"/>
+      <c r="FM3" s="3"/>
+      <c r="FN3" s="3"/>
+      <c r="FO3" s="3"/>
+      <c r="FP3" s="3"/>
+      <c r="FQ3" s="3"/>
+      <c r="FR3" s="3"/>
+      <c r="FS3" s="3"/>
+      <c r="FT3" s="3"/>
+      <c r="FU3" s="3"/>
+      <c r="FV3" s="3"/>
+      <c r="FW3" s="3"/>
+      <c r="FX3" s="3"/>
+      <c r="FY3" s="3"/>
+      <c r="FZ3" s="3"/>
+      <c r="GA3" s="3"/>
+      <c r="GB3" s="3"/>
+      <c r="GC3" s="3"/>
+      <c r="GD3" s="3"/>
+      <c r="GE3" s="3"/>
+      <c r="GF3" s="3"/>
+      <c r="GG3" s="3"/>
+      <c r="GH3" s="3"/>
+      <c r="GI3" s="3"/>
+      <c r="GJ3" s="3"/>
+      <c r="GK3" s="3"/>
+      <c r="GL3" s="3"/>
+      <c r="GM3" s="3"/>
+      <c r="GN3" s="3"/>
+      <c r="GO3" s="3"/>
+      <c r="GP3" s="3"/>
+      <c r="GQ3" s="3"/>
+      <c r="GR3" s="3"/>
+      <c r="GS3" s="3"/>
+      <c r="GT3" s="3"/>
+      <c r="GU3" s="3"/>
+      <c r="GV3" s="3"/>
+      <c r="GW3" s="3"/>
+      <c r="GX3" s="3"/>
+      <c r="GY3" s="3"/>
+      <c r="GZ3" s="3"/>
+      <c r="HA3" s="3"/>
+      <c r="HB3" s="3"/>
+      <c r="HC3" s="3"/>
+      <c r="HD3" s="3"/>
+      <c r="HE3" s="3"/>
+      <c r="HF3" s="3"/>
+      <c r="HG3" s="3"/>
+      <c r="HH3" s="3"/>
+      <c r="HI3" s="3"/>
+      <c r="HJ3" s="3"/>
+      <c r="HK3" s="3"/>
+      <c r="HL3" s="3"/>
+      <c r="HM3" s="3"/>
+      <c r="HN3" s="3"/>
+      <c r="HO3" s="3"/>
+      <c r="HP3" s="3"/>
+      <c r="HQ3" s="3"/>
+      <c r="HR3" s="3"/>
+      <c r="HS3" s="3"/>
+      <c r="HT3" s="3"/>
+      <c r="HU3" s="3"/>
+      <c r="HV3" s="3"/>
+      <c r="HW3" s="3"/>
+      <c r="HX3" s="3"/>
+      <c r="HY3" s="3"/>
+      <c r="HZ3" s="3"/>
+      <c r="IA3" s="3"/>
+      <c r="IB3" s="3"/>
+      <c r="IC3" s="3"/>
+      <c r="ID3" s="3"/>
+      <c r="IE3" s="3"/>
+      <c r="IF3" s="3"/>
+      <c r="IG3" s="3"/>
+      <c r="IH3" s="3"/>
+      <c r="II3" s="3"/>
+      <c r="IJ3" s="3"/>
+      <c r="IK3" s="3"/>
+      <c r="IL3" s="3"/>
+      <c r="IM3" s="3"/>
+      <c r="IN3" s="3"/>
+      <c r="IO3" s="3"/>
+      <c r="IP3" s="3"/>
+      <c r="IQ3" s="3"/>
+      <c r="IR3" s="3"/>
+      <c r="IS3" s="3"/>
+      <c r="IT3" s="3"/>
+      <c r="IU3" s="3"/>
+      <c r="IV3" s="3"/>
+    </row>
+    <row r="4" spans="1:256" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+      <c r="DS4" s="3"/>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3"/>
+      <c r="DV4" s="3"/>
+      <c r="DW4" s="3"/>
+      <c r="DX4" s="3"/>
+      <c r="DY4" s="3"/>
+      <c r="DZ4" s="3"/>
+      <c r="EA4" s="3"/>
+      <c r="EB4" s="3"/>
+      <c r="EC4" s="3"/>
+      <c r="ED4" s="3"/>
+      <c r="EE4" s="3"/>
+      <c r="EF4" s="3"/>
+      <c r="EG4" s="3"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="3"/>
+      <c r="EK4" s="3"/>
+      <c r="EL4" s="3"/>
+      <c r="EM4" s="3"/>
+      <c r="EN4" s="3"/>
+      <c r="EO4" s="3"/>
+      <c r="EP4" s="3"/>
+      <c r="EQ4" s="3"/>
+      <c r="ER4" s="3"/>
+      <c r="ES4" s="3"/>
+      <c r="ET4" s="3"/>
+      <c r="EU4" s="3"/>
+      <c r="EV4" s="3"/>
+      <c r="EW4" s="3"/>
+      <c r="EX4" s="3"/>
+      <c r="EY4" s="3"/>
+      <c r="EZ4" s="3"/>
+      <c r="FA4" s="3"/>
+      <c r="FB4" s="3"/>
+      <c r="FC4" s="3"/>
+      <c r="FD4" s="3"/>
+      <c r="FE4" s="3"/>
+      <c r="FF4" s="3"/>
+      <c r="FG4" s="3"/>
+      <c r="FH4" s="3"/>
+      <c r="FI4" s="3"/>
+      <c r="FJ4" s="3"/>
+      <c r="FK4" s="3"/>
+      <c r="FL4" s="3"/>
+      <c r="FM4" s="3"/>
+      <c r="FN4" s="3"/>
+      <c r="FO4" s="3"/>
+      <c r="FP4" s="3"/>
+      <c r="FQ4" s="3"/>
+      <c r="FR4" s="3"/>
+      <c r="FS4" s="3"/>
+      <c r="FT4" s="3"/>
+      <c r="FU4" s="3"/>
+      <c r="FV4" s="3"/>
+      <c r="FW4" s="3"/>
+      <c r="FX4" s="3"/>
+      <c r="FY4" s="3"/>
+      <c r="FZ4" s="3"/>
+      <c r="GA4" s="3"/>
+      <c r="GB4" s="3"/>
+      <c r="GC4" s="3"/>
+      <c r="GD4" s="3"/>
+      <c r="GE4" s="3"/>
+      <c r="GF4" s="3"/>
+      <c r="GG4" s="3"/>
+      <c r="GH4" s="3"/>
+      <c r="GI4" s="3"/>
+      <c r="GJ4" s="3"/>
+      <c r="GK4" s="3"/>
+      <c r="GL4" s="3"/>
+      <c r="GM4" s="3"/>
+      <c r="GN4" s="3"/>
+      <c r="GO4" s="3"/>
+      <c r="GP4" s="3"/>
+      <c r="GQ4" s="3"/>
+      <c r="GR4" s="3"/>
+      <c r="GS4" s="3"/>
+      <c r="GT4" s="3"/>
+      <c r="GU4" s="3"/>
+      <c r="GV4" s="3"/>
+      <c r="GW4" s="3"/>
+      <c r="GX4" s="3"/>
+      <c r="GY4" s="3"/>
+      <c r="GZ4" s="3"/>
+      <c r="HA4" s="3"/>
+      <c r="HB4" s="3"/>
+      <c r="HC4" s="3"/>
+      <c r="HD4" s="3"/>
+      <c r="HE4" s="3"/>
+      <c r="HF4" s="3"/>
+      <c r="HG4" s="3"/>
+      <c r="HH4" s="3"/>
+      <c r="HI4" s="3"/>
+      <c r="HJ4" s="3"/>
+      <c r="HK4" s="3"/>
+      <c r="HL4" s="3"/>
+      <c r="HM4" s="3"/>
+      <c r="HN4" s="3"/>
+      <c r="HO4" s="3"/>
+      <c r="HP4" s="3"/>
+      <c r="HQ4" s="3"/>
+      <c r="HR4" s="3"/>
+      <c r="HS4" s="3"/>
+      <c r="HT4" s="3"/>
+      <c r="HU4" s="3"/>
+      <c r="HV4" s="3"/>
+      <c r="HW4" s="3"/>
+      <c r="HX4" s="3"/>
+      <c r="HY4" s="3"/>
+      <c r="HZ4" s="3"/>
+      <c r="IA4" s="3"/>
+      <c r="IB4" s="3"/>
+      <c r="IC4" s="3"/>
+      <c r="ID4" s="3"/>
+      <c r="IE4" s="3"/>
+      <c r="IF4" s="3"/>
+      <c r="IG4" s="3"/>
+      <c r="IH4" s="3"/>
+      <c r="II4" s="3"/>
+      <c r="IJ4" s="3"/>
+      <c r="IK4" s="3"/>
+      <c r="IL4" s="3"/>
+      <c r="IM4" s="3"/>
+      <c r="IN4" s="3"/>
+      <c r="IO4" s="3"/>
+      <c r="IP4" s="3"/>
+      <c r="IQ4" s="3"/>
+      <c r="IR4" s="3"/>
+      <c r="IS4" s="3"/>
+      <c r="IT4" s="3"/>
+      <c r="IU4" s="3"/>
+      <c r="IV4" s="3"/>
+    </row>
+    <row r="5" spans="1:256" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
+      <c r="DH5" s="3"/>
+      <c r="DI5" s="3"/>
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3"/>
+      <c r="DL5" s="3"/>
+      <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
+      <c r="DO5" s="3"/>
+      <c r="DP5" s="3"/>
+      <c r="DQ5" s="3"/>
+      <c r="DR5" s="3"/>
+      <c r="DS5" s="3"/>
+      <c r="DT5" s="3"/>
+      <c r="DU5" s="3"/>
+      <c r="DV5" s="3"/>
+      <c r="DW5" s="3"/>
+      <c r="DX5" s="3"/>
+      <c r="DY5" s="3"/>
+      <c r="DZ5" s="3"/>
+      <c r="EA5" s="3"/>
+      <c r="EB5" s="3"/>
+      <c r="EC5" s="3"/>
+      <c r="ED5" s="3"/>
+      <c r="EE5" s="3"/>
+      <c r="EF5" s="3"/>
+      <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
+      <c r="EI5" s="3"/>
+      <c r="EJ5" s="3"/>
+      <c r="EK5" s="3"/>
+      <c r="EL5" s="3"/>
+      <c r="EM5" s="3"/>
+      <c r="EN5" s="3"/>
+      <c r="EO5" s="3"/>
+      <c r="EP5" s="3"/>
+      <c r="EQ5" s="3"/>
+      <c r="ER5" s="3"/>
+      <c r="ES5" s="3"/>
+      <c r="ET5" s="3"/>
+      <c r="EU5" s="3"/>
+      <c r="EV5" s="3"/>
+      <c r="EW5" s="3"/>
+      <c r="EX5" s="3"/>
+      <c r="EY5" s="3"/>
+      <c r="EZ5" s="3"/>
+      <c r="FA5" s="3"/>
+      <c r="FB5" s="3"/>
+      <c r="FC5" s="3"/>
+      <c r="FD5" s="3"/>
+      <c r="FE5" s="3"/>
+      <c r="FF5" s="3"/>
+      <c r="FG5" s="3"/>
+      <c r="FH5" s="3"/>
+      <c r="FI5" s="3"/>
+      <c r="FJ5" s="3"/>
+      <c r="FK5" s="3"/>
+      <c r="FL5" s="3"/>
+      <c r="FM5" s="3"/>
+      <c r="FN5" s="3"/>
+      <c r="FO5" s="3"/>
+      <c r="FP5" s="3"/>
+      <c r="FQ5" s="3"/>
+      <c r="FR5" s="3"/>
+      <c r="FS5" s="3"/>
+      <c r="FT5" s="3"/>
+      <c r="FU5" s="3"/>
+      <c r="FV5" s="3"/>
+      <c r="FW5" s="3"/>
+      <c r="FX5" s="3"/>
+      <c r="FY5" s="3"/>
+      <c r="FZ5" s="3"/>
+      <c r="GA5" s="3"/>
+      <c r="GB5" s="3"/>
+      <c r="GC5" s="3"/>
+      <c r="GD5" s="3"/>
+      <c r="GE5" s="3"/>
+      <c r="GF5" s="3"/>
+      <c r="GG5" s="3"/>
+      <c r="GH5" s="3"/>
+      <c r="GI5" s="3"/>
+      <c r="GJ5" s="3"/>
+      <c r="GK5" s="3"/>
+      <c r="GL5" s="3"/>
+      <c r="GM5" s="3"/>
+      <c r="GN5" s="3"/>
+      <c r="GO5" s="3"/>
+      <c r="GP5" s="3"/>
+      <c r="GQ5" s="3"/>
+      <c r="GR5" s="3"/>
+      <c r="GS5" s="3"/>
+      <c r="GT5" s="3"/>
+      <c r="GU5" s="3"/>
+      <c r="GV5" s="3"/>
+      <c r="GW5" s="3"/>
+      <c r="GX5" s="3"/>
+      <c r="GY5" s="3"/>
+      <c r="GZ5" s="3"/>
+      <c r="HA5" s="3"/>
+      <c r="HB5" s="3"/>
+      <c r="HC5" s="3"/>
+      <c r="HD5" s="3"/>
+      <c r="HE5" s="3"/>
+      <c r="HF5" s="3"/>
+      <c r="HG5" s="3"/>
+      <c r="HH5" s="3"/>
+      <c r="HI5" s="3"/>
+      <c r="HJ5" s="3"/>
+      <c r="HK5" s="3"/>
+      <c r="HL5" s="3"/>
+      <c r="HM5" s="3"/>
+      <c r="HN5" s="3"/>
+      <c r="HO5" s="3"/>
+      <c r="HP5" s="3"/>
+      <c r="HQ5" s="3"/>
+      <c r="HR5" s="3"/>
+      <c r="HS5" s="3"/>
+      <c r="HT5" s="3"/>
+      <c r="HU5" s="3"/>
+      <c r="HV5" s="3"/>
+      <c r="HW5" s="3"/>
+      <c r="HX5" s="3"/>
+      <c r="HY5" s="3"/>
+      <c r="HZ5" s="3"/>
+      <c r="IA5" s="3"/>
+      <c r="IB5" s="3"/>
+      <c r="IC5" s="3"/>
+      <c r="ID5" s="3"/>
+      <c r="IE5" s="3"/>
+      <c r="IF5" s="3"/>
+      <c r="IG5" s="3"/>
+      <c r="IH5" s="3"/>
+      <c r="II5" s="3"/>
+      <c r="IJ5" s="3"/>
+      <c r="IK5" s="3"/>
+      <c r="IL5" s="3"/>
+      <c r="IM5" s="3"/>
+      <c r="IN5" s="3"/>
+      <c r="IO5" s="3"/>
+      <c r="IP5" s="3"/>
+      <c r="IQ5" s="3"/>
+      <c r="IR5" s="3"/>
+      <c r="IS5" s="3"/>
+      <c r="IT5" s="3"/>
+      <c r="IU5" s="3"/>
+      <c r="IV5" s="3"/>
+    </row>
+    <row r="6" spans="1:256" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
+      <c r="DH6" s="3"/>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="3"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="3"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="3"/>
+      <c r="DQ6" s="3"/>
+      <c r="DR6" s="3"/>
+      <c r="DS6" s="3"/>
+      <c r="DT6" s="3"/>
+      <c r="DU6" s="3"/>
+      <c r="DV6" s="3"/>
+      <c r="DW6" s="3"/>
+      <c r="DX6" s="3"/>
+      <c r="DY6" s="3"/>
+      <c r="DZ6" s="3"/>
+      <c r="EA6" s="3"/>
+      <c r="EB6" s="3"/>
+      <c r="EC6" s="3"/>
+      <c r="ED6" s="3"/>
+      <c r="EE6" s="3"/>
+      <c r="EF6" s="3"/>
+      <c r="EG6" s="3"/>
+      <c r="EH6" s="3"/>
+      <c r="EI6" s="3"/>
+      <c r="EJ6" s="3"/>
+      <c r="EK6" s="3"/>
+      <c r="EL6" s="3"/>
+      <c r="EM6" s="3"/>
+      <c r="EN6" s="3"/>
+      <c r="EO6" s="3"/>
+      <c r="EP6" s="3"/>
+      <c r="EQ6" s="3"/>
+      <c r="ER6" s="3"/>
+      <c r="ES6" s="3"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="3"/>
+      <c r="EV6" s="3"/>
+      <c r="EW6" s="3"/>
+      <c r="EX6" s="3"/>
+      <c r="EY6" s="3"/>
+      <c r="EZ6" s="3"/>
+      <c r="FA6" s="3"/>
+      <c r="FB6" s="3"/>
+      <c r="FC6" s="3"/>
+      <c r="FD6" s="3"/>
+      <c r="FE6" s="3"/>
+      <c r="FF6" s="3"/>
+      <c r="FG6" s="3"/>
+      <c r="FH6" s="3"/>
+      <c r="FI6" s="3"/>
+      <c r="FJ6" s="3"/>
+      <c r="FK6" s="3"/>
+      <c r="FL6" s="3"/>
+      <c r="FM6" s="3"/>
+      <c r="FN6" s="3"/>
+      <c r="FO6" s="3"/>
+      <c r="FP6" s="3"/>
+      <c r="FQ6" s="3"/>
+      <c r="FR6" s="3"/>
+      <c r="FS6" s="3"/>
+      <c r="FT6" s="3"/>
+      <c r="FU6" s="3"/>
+      <c r="FV6" s="3"/>
+      <c r="FW6" s="3"/>
+      <c r="FX6" s="3"/>
+      <c r="FY6" s="3"/>
+      <c r="FZ6" s="3"/>
+      <c r="GA6" s="3"/>
+      <c r="GB6" s="3"/>
+      <c r="GC6" s="3"/>
+      <c r="GD6" s="3"/>
+      <c r="GE6" s="3"/>
+      <c r="GF6" s="3"/>
+      <c r="GG6" s="3"/>
+      <c r="GH6" s="3"/>
+      <c r="GI6" s="3"/>
+      <c r="GJ6" s="3"/>
+      <c r="GK6" s="3"/>
+      <c r="GL6" s="3"/>
+      <c r="GM6" s="3"/>
+      <c r="GN6" s="3"/>
+      <c r="GO6" s="3"/>
+      <c r="GP6" s="3"/>
+      <c r="GQ6" s="3"/>
+      <c r="GR6" s="3"/>
+      <c r="GS6" s="3"/>
+      <c r="GT6" s="3"/>
+      <c r="GU6" s="3"/>
+      <c r="GV6" s="3"/>
+      <c r="GW6" s="3"/>
+      <c r="GX6" s="3"/>
+      <c r="GY6" s="3"/>
+      <c r="GZ6" s="3"/>
+      <c r="HA6" s="3"/>
+      <c r="HB6" s="3"/>
+      <c r="HC6" s="3"/>
+      <c r="HD6" s="3"/>
+      <c r="HE6" s="3"/>
+      <c r="HF6" s="3"/>
+      <c r="HG6" s="3"/>
+      <c r="HH6" s="3"/>
+      <c r="HI6" s="3"/>
+      <c r="HJ6" s="3"/>
+      <c r="HK6" s="3"/>
+      <c r="HL6" s="3"/>
+      <c r="HM6" s="3"/>
+      <c r="HN6" s="3"/>
+      <c r="HO6" s="3"/>
+      <c r="HP6" s="3"/>
+      <c r="HQ6" s="3"/>
+      <c r="HR6" s="3"/>
+      <c r="HS6" s="3"/>
+      <c r="HT6" s="3"/>
+      <c r="HU6" s="3"/>
+      <c r="HV6" s="3"/>
+      <c r="HW6" s="3"/>
+      <c r="HX6" s="3"/>
+      <c r="HY6" s="3"/>
+      <c r="HZ6" s="3"/>
+      <c r="IA6" s="3"/>
+      <c r="IB6" s="3"/>
+      <c r="IC6" s="3"/>
+      <c r="ID6" s="3"/>
+      <c r="IE6" s="3"/>
+      <c r="IF6" s="3"/>
+      <c r="IG6" s="3"/>
+      <c r="IH6" s="3"/>
+      <c r="II6" s="3"/>
+      <c r="IJ6" s="3"/>
+      <c r="IK6" s="3"/>
+      <c r="IL6" s="3"/>
+      <c r="IM6" s="3"/>
+      <c r="IN6" s="3"/>
+      <c r="IO6" s="3"/>
+      <c r="IP6" s="3"/>
+      <c r="IQ6" s="3"/>
+      <c r="IR6" s="3"/>
+      <c r="IS6" s="3"/>
+      <c r="IT6" s="3"/>
+      <c r="IU6" s="3"/>
+      <c r="IV6" s="3"/>
+    </row>
+    <row r="7" spans="1:256" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+      <c r="DF7" s="3"/>
+      <c r="DG7" s="3"/>
+      <c r="DH7" s="3"/>
+      <c r="DI7" s="3"/>
+      <c r="DJ7" s="3"/>
+      <c r="DK7" s="3"/>
+      <c r="DL7" s="3"/>
+      <c r="DM7" s="3"/>
+      <c r="DN7" s="3"/>
+      <c r="DO7" s="3"/>
+      <c r="DP7" s="3"/>
+      <c r="DQ7" s="3"/>
+      <c r="DR7" s="3"/>
+      <c r="DS7" s="3"/>
+      <c r="DT7" s="3"/>
+      <c r="DU7" s="3"/>
+      <c r="DV7" s="3"/>
+      <c r="DW7" s="3"/>
+      <c r="DX7" s="3"/>
+      <c r="DY7" s="3"/>
+      <c r="DZ7" s="3"/>
+      <c r="EA7" s="3"/>
+      <c r="EB7" s="3"/>
+      <c r="EC7" s="3"/>
+      <c r="ED7" s="3"/>
+      <c r="EE7" s="3"/>
+      <c r="EF7" s="3"/>
+      <c r="EG7" s="3"/>
+      <c r="EH7" s="3"/>
+      <c r="EI7" s="3"/>
+      <c r="EJ7" s="3"/>
+      <c r="EK7" s="3"/>
+      <c r="EL7" s="3"/>
+      <c r="EM7" s="3"/>
+      <c r="EN7" s="3"/>
+      <c r="EO7" s="3"/>
+      <c r="EP7" s="3"/>
+      <c r="EQ7" s="3"/>
+      <c r="ER7" s="3"/>
+      <c r="ES7" s="3"/>
+      <c r="ET7" s="3"/>
+      <c r="EU7" s="3"/>
+      <c r="EV7" s="3"/>
+      <c r="EW7" s="3"/>
+      <c r="EX7" s="3"/>
+      <c r="EY7" s="3"/>
+      <c r="EZ7" s="3"/>
+      <c r="FA7" s="3"/>
+      <c r="FB7" s="3"/>
+      <c r="FC7" s="3"/>
+      <c r="FD7" s="3"/>
+      <c r="FE7" s="3"/>
+      <c r="FF7" s="3"/>
+      <c r="FG7" s="3"/>
+      <c r="FH7" s="3"/>
+      <c r="FI7" s="3"/>
+      <c r="FJ7" s="3"/>
+      <c r="FK7" s="3"/>
+      <c r="FL7" s="3"/>
+      <c r="FM7" s="3"/>
+      <c r="FN7" s="3"/>
+      <c r="FO7" s="3"/>
+      <c r="FP7" s="3"/>
+      <c r="FQ7" s="3"/>
+      <c r="FR7" s="3"/>
+      <c r="FS7" s="3"/>
+      <c r="FT7" s="3"/>
+      <c r="FU7" s="3"/>
+      <c r="FV7" s="3"/>
+      <c r="FW7" s="3"/>
+      <c r="FX7" s="3"/>
+      <c r="FY7" s="3"/>
+      <c r="FZ7" s="3"/>
+      <c r="GA7" s="3"/>
+      <c r="GB7" s="3"/>
+      <c r="GC7" s="3"/>
+      <c r="GD7" s="3"/>
+      <c r="GE7" s="3"/>
+      <c r="GF7" s="3"/>
+      <c r="GG7" s="3"/>
+      <c r="GH7" s="3"/>
+      <c r="GI7" s="3"/>
+      <c r="GJ7" s="3"/>
+      <c r="GK7" s="3"/>
+      <c r="GL7" s="3"/>
+      <c r="GM7" s="3"/>
+      <c r="GN7" s="3"/>
+      <c r="GO7" s="3"/>
+      <c r="GP7" s="3"/>
+      <c r="GQ7" s="3"/>
+      <c r="GR7" s="3"/>
+      <c r="GS7" s="3"/>
+      <c r="GT7" s="3"/>
+      <c r="GU7" s="3"/>
+      <c r="GV7" s="3"/>
+      <c r="GW7" s="3"/>
+      <c r="GX7" s="3"/>
+      <c r="GY7" s="3"/>
+      <c r="GZ7" s="3"/>
+      <c r="HA7" s="3"/>
+      <c r="HB7" s="3"/>
+      <c r="HC7" s="3"/>
+      <c r="HD7" s="3"/>
+      <c r="HE7" s="3"/>
+      <c r="HF7" s="3"/>
+      <c r="HG7" s="3"/>
+      <c r="HH7" s="3"/>
+      <c r="HI7" s="3"/>
+      <c r="HJ7" s="3"/>
+      <c r="HK7" s="3"/>
+      <c r="HL7" s="3"/>
+      <c r="HM7" s="3"/>
+      <c r="HN7" s="3"/>
+      <c r="HO7" s="3"/>
+      <c r="HP7" s="3"/>
+      <c r="HQ7" s="3"/>
+      <c r="HR7" s="3"/>
+      <c r="HS7" s="3"/>
+      <c r="HT7" s="3"/>
+      <c r="HU7" s="3"/>
+      <c r="HV7" s="3"/>
+      <c r="HW7" s="3"/>
+      <c r="HX7" s="3"/>
+      <c r="HY7" s="3"/>
+      <c r="HZ7" s="3"/>
+      <c r="IA7" s="3"/>
+      <c r="IB7" s="3"/>
+      <c r="IC7" s="3"/>
+      <c r="ID7" s="3"/>
+      <c r="IE7" s="3"/>
+      <c r="IF7" s="3"/>
+      <c r="IG7" s="3"/>
+      <c r="IH7" s="3"/>
+      <c r="II7" s="3"/>
+      <c r="IJ7" s="3"/>
+      <c r="IK7" s="3"/>
+      <c r="IL7" s="3"/>
+      <c r="IM7" s="3"/>
+      <c r="IN7" s="3"/>
+      <c r="IO7" s="3"/>
+      <c r="IP7" s="3"/>
+      <c r="IQ7" s="3"/>
+      <c r="IR7" s="3"/>
+      <c r="IS7" s="3"/>
+      <c r="IT7" s="3"/>
+      <c r="IU7" s="3"/>
+      <c r="IV7" s="3"/>
+    </row>
+    <row r="8" spans="1:256" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
+      <c r="DC8" s="3"/>
+      <c r="DD8" s="3"/>
+      <c r="DE8" s="3"/>
+      <c r="DF8" s="3"/>
+      <c r="DG8" s="3"/>
+      <c r="DH8" s="3"/>
+      <c r="DI8" s="3"/>
+      <c r="DJ8" s="3"/>
+      <c r="DK8" s="3"/>
+      <c r="DL8" s="3"/>
+      <c r="DM8" s="3"/>
+      <c r="DN8" s="3"/>
+      <c r="DO8" s="3"/>
+      <c r="DP8" s="3"/>
+      <c r="DQ8" s="3"/>
+      <c r="DR8" s="3"/>
+      <c r="DS8" s="3"/>
+      <c r="DT8" s="3"/>
+      <c r="DU8" s="3"/>
+      <c r="DV8" s="3"/>
+      <c r="DW8" s="3"/>
+      <c r="DX8" s="3"/>
+      <c r="DY8" s="3"/>
+      <c r="DZ8" s="3"/>
+      <c r="EA8" s="3"/>
+      <c r="EB8" s="3"/>
+      <c r="EC8" s="3"/>
+      <c r="ED8" s="3"/>
+      <c r="EE8" s="3"/>
+      <c r="EF8" s="3"/>
+      <c r="EG8" s="3"/>
+      <c r="EH8" s="3"/>
+      <c r="EI8" s="3"/>
+      <c r="EJ8" s="3"/>
+      <c r="EK8" s="3"/>
+      <c r="EL8" s="3"/>
+      <c r="EM8" s="3"/>
+      <c r="EN8" s="3"/>
+      <c r="EO8" s="3"/>
+      <c r="EP8" s="3"/>
+      <c r="EQ8" s="3"/>
+      <c r="ER8" s="3"/>
+      <c r="ES8" s="3"/>
+      <c r="ET8" s="3"/>
+      <c r="EU8" s="3"/>
+      <c r="EV8" s="3"/>
+      <c r="EW8" s="3"/>
+      <c r="EX8" s="3"/>
+      <c r="EY8" s="3"/>
+      <c r="EZ8" s="3"/>
+      <c r="FA8" s="3"/>
+      <c r="FB8" s="3"/>
+      <c r="FC8" s="3"/>
+      <c r="FD8" s="3"/>
+      <c r="FE8" s="3"/>
+      <c r="FF8" s="3"/>
+      <c r="FG8" s="3"/>
+      <c r="FH8" s="3"/>
+      <c r="FI8" s="3"/>
+      <c r="FJ8" s="3"/>
+      <c r="FK8" s="3"/>
+      <c r="FL8" s="3"/>
+      <c r="FM8" s="3"/>
+      <c r="FN8" s="3"/>
+      <c r="FO8" s="3"/>
+      <c r="FP8" s="3"/>
+      <c r="FQ8" s="3"/>
+      <c r="FR8" s="3"/>
+      <c r="FS8" s="3"/>
+      <c r="FT8" s="3"/>
+      <c r="FU8" s="3"/>
+      <c r="FV8" s="3"/>
+      <c r="FW8" s="3"/>
+      <c r="FX8" s="3"/>
+      <c r="FY8" s="3"/>
+      <c r="FZ8" s="3"/>
+      <c r="GA8" s="3"/>
+      <c r="GB8" s="3"/>
+      <c r="GC8" s="3"/>
+      <c r="GD8" s="3"/>
+      <c r="GE8" s="3"/>
+      <c r="GF8" s="3"/>
+      <c r="GG8" s="3"/>
+      <c r="GH8" s="3"/>
+      <c r="GI8" s="3"/>
+      <c r="GJ8" s="3"/>
+      <c r="GK8" s="3"/>
+      <c r="GL8" s="3"/>
+      <c r="GM8" s="3"/>
+      <c r="GN8" s="3"/>
+      <c r="GO8" s="3"/>
+      <c r="GP8" s="3"/>
+      <c r="GQ8" s="3"/>
+      <c r="GR8" s="3"/>
+      <c r="GS8" s="3"/>
+      <c r="GT8" s="3"/>
+      <c r="GU8" s="3"/>
+      <c r="GV8" s="3"/>
+      <c r="GW8" s="3"/>
+      <c r="GX8" s="3"/>
+      <c r="GY8" s="3"/>
+      <c r="GZ8" s="3"/>
+      <c r="HA8" s="3"/>
+      <c r="HB8" s="3"/>
+      <c r="HC8" s="3"/>
+      <c r="HD8" s="3"/>
+      <c r="HE8" s="3"/>
+      <c r="HF8" s="3"/>
+      <c r="HG8" s="3"/>
+      <c r="HH8" s="3"/>
+      <c r="HI8" s="3"/>
+      <c r="HJ8" s="3"/>
+      <c r="HK8" s="3"/>
+      <c r="HL8" s="3"/>
+      <c r="HM8" s="3"/>
+      <c r="HN8" s="3"/>
+      <c r="HO8" s="3"/>
+      <c r="HP8" s="3"/>
+      <c r="HQ8" s="3"/>
+      <c r="HR8" s="3"/>
+      <c r="HS8" s="3"/>
+      <c r="HT8" s="3"/>
+      <c r="HU8" s="3"/>
+      <c r="HV8" s="3"/>
+      <c r="HW8" s="3"/>
+      <c r="HX8" s="3"/>
+      <c r="HY8" s="3"/>
+      <c r="HZ8" s="3"/>
+      <c r="IA8" s="3"/>
+      <c r="IB8" s="3"/>
+      <c r="IC8" s="3"/>
+      <c r="ID8" s="3"/>
+      <c r="IE8" s="3"/>
+      <c r="IF8" s="3"/>
+      <c r="IG8" s="3"/>
+      <c r="IH8" s="3"/>
+      <c r="II8" s="3"/>
+      <c r="IJ8" s="3"/>
+      <c r="IK8" s="3"/>
+      <c r="IL8" s="3"/>
+      <c r="IM8" s="3"/>
+      <c r="IN8" s="3"/>
+      <c r="IO8" s="3"/>
+      <c r="IP8" s="3"/>
+      <c r="IQ8" s="3"/>
+      <c r="IR8" s="3"/>
+      <c r="IS8" s="3"/>
+      <c r="IT8" s="3"/>
+      <c r="IU8" s="3"/>
+      <c r="IV8" s="3"/>
+    </row>
+    <row r="9" spans="1:256" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="3"/>
+      <c r="CW9" s="3"/>
+      <c r="CX9" s="3"/>
+      <c r="CY9" s="3"/>
+      <c r="CZ9" s="3"/>
+      <c r="DA9" s="3"/>
+      <c r="DB9" s="3"/>
+      <c r="DC9" s="3"/>
+      <c r="DD9" s="3"/>
+      <c r="DE9" s="3"/>
+      <c r="DF9" s="3"/>
+      <c r="DG9" s="3"/>
+      <c r="DH9" s="3"/>
+      <c r="DI9" s="3"/>
+      <c r="DJ9" s="3"/>
+      <c r="DK9" s="3"/>
+      <c r="DL9" s="3"/>
+      <c r="DM9" s="3"/>
+      <c r="DN9" s="3"/>
+      <c r="DO9" s="3"/>
+      <c r="DP9" s="3"/>
+      <c r="DQ9" s="3"/>
+      <c r="DR9" s="3"/>
+      <c r="DS9" s="3"/>
+      <c r="DT9" s="3"/>
+      <c r="DU9" s="3"/>
+      <c r="DV9" s="3"/>
+      <c r="DW9" s="3"/>
+      <c r="DX9" s="3"/>
+      <c r="DY9" s="3"/>
+      <c r="DZ9" s="3"/>
+      <c r="EA9" s="3"/>
+      <c r="EB9" s="3"/>
+      <c r="EC9" s="3"/>
+      <c r="ED9" s="3"/>
+      <c r="EE9" s="3"/>
+      <c r="EF9" s="3"/>
+      <c r="EG9" s="3"/>
+      <c r="EH9" s="3"/>
+      <c r="EI9" s="3"/>
+      <c r="EJ9" s="3"/>
+      <c r="EK9" s="3"/>
+      <c r="EL9" s="3"/>
+      <c r="EM9" s="3"/>
+      <c r="EN9" s="3"/>
+      <c r="EO9" s="3"/>
+      <c r="EP9" s="3"/>
+      <c r="EQ9" s="3"/>
+      <c r="ER9" s="3"/>
+      <c r="ES9" s="3"/>
+      <c r="ET9" s="3"/>
+      <c r="EU9" s="3"/>
+      <c r="EV9" s="3"/>
+      <c r="EW9" s="3"/>
+      <c r="EX9" s="3"/>
+      <c r="EY9" s="3"/>
+      <c r="EZ9" s="3"/>
+      <c r="FA9" s="3"/>
+      <c r="FB9" s="3"/>
+      <c r="FC9" s="3"/>
+      <c r="FD9" s="3"/>
+      <c r="FE9" s="3"/>
+      <c r="FF9" s="3"/>
+      <c r="FG9" s="3"/>
+      <c r="FH9" s="3"/>
+      <c r="FI9" s="3"/>
+      <c r="FJ9" s="3"/>
+      <c r="FK9" s="3"/>
+      <c r="FL9" s="3"/>
+      <c r="FM9" s="3"/>
+      <c r="FN9" s="3"/>
+      <c r="FO9" s="3"/>
+      <c r="FP9" s="3"/>
+      <c r="FQ9" s="3"/>
+      <c r="FR9" s="3"/>
+      <c r="FS9" s="3"/>
+      <c r="FT9" s="3"/>
+      <c r="FU9" s="3"/>
+      <c r="FV9" s="3"/>
+      <c r="FW9" s="3"/>
+      <c r="FX9" s="3"/>
+      <c r="FY9" s="3"/>
+      <c r="FZ9" s="3"/>
+      <c r="GA9" s="3"/>
+      <c r="GB9" s="3"/>
+      <c r="GC9" s="3"/>
+      <c r="GD9" s="3"/>
+      <c r="GE9" s="3"/>
+      <c r="GF9" s="3"/>
+      <c r="GG9" s="3"/>
+      <c r="GH9" s="3"/>
+      <c r="GI9" s="3"/>
+      <c r="GJ9" s="3"/>
+      <c r="GK9" s="3"/>
+      <c r="GL9" s="3"/>
+      <c r="GM9" s="3"/>
+      <c r="GN9" s="3"/>
+      <c r="GO9" s="3"/>
+      <c r="GP9" s="3"/>
+      <c r="GQ9" s="3"/>
+      <c r="GR9" s="3"/>
+      <c r="GS9" s="3"/>
+      <c r="GT9" s="3"/>
+      <c r="GU9" s="3"/>
+      <c r="GV9" s="3"/>
+      <c r="GW9" s="3"/>
+      <c r="GX9" s="3"/>
+      <c r="GY9" s="3"/>
+      <c r="GZ9" s="3"/>
+      <c r="HA9" s="3"/>
+      <c r="HB9" s="3"/>
+      <c r="HC9" s="3"/>
+      <c r="HD9" s="3"/>
+      <c r="HE9" s="3"/>
+      <c r="HF9" s="3"/>
+      <c r="HG9" s="3"/>
+      <c r="HH9" s="3"/>
+      <c r="HI9" s="3"/>
+      <c r="HJ9" s="3"/>
+      <c r="HK9" s="3"/>
+      <c r="HL9" s="3"/>
+      <c r="HM9" s="3"/>
+      <c r="HN9" s="3"/>
+      <c r="HO9" s="3"/>
+      <c r="HP9" s="3"/>
+      <c r="HQ9" s="3"/>
+      <c r="HR9" s="3"/>
+      <c r="HS9" s="3"/>
+      <c r="HT9" s="3"/>
+      <c r="HU9" s="3"/>
+      <c r="HV9" s="3"/>
+      <c r="HW9" s="3"/>
+      <c r="HX9" s="3"/>
+      <c r="HY9" s="3"/>
+      <c r="HZ9" s="3"/>
+      <c r="IA9" s="3"/>
+      <c r="IB9" s="3"/>
+      <c r="IC9" s="3"/>
+      <c r="ID9" s="3"/>
+      <c r="IE9" s="3"/>
+      <c r="IF9" s="3"/>
+      <c r="IG9" s="3"/>
+      <c r="IH9" s="3"/>
+      <c r="II9" s="3"/>
+      <c r="IJ9" s="3"/>
+      <c r="IK9" s="3"/>
+      <c r="IL9" s="3"/>
+      <c r="IM9" s="3"/>
+      <c r="IN9" s="3"/>
+      <c r="IO9" s="3"/>
+      <c r="IP9" s="3"/>
+      <c r="IQ9" s="3"/>
+      <c r="IR9" s="3"/>
+      <c r="IS9" s="3"/>
+      <c r="IT9" s="3"/>
+      <c r="IU9" s="3"/>
+      <c r="IV9" s="3"/>
+    </row>
+    <row r="10" spans="1:256" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="3"/>
+      <c r="CR10" s="3"/>
+      <c r="CS10" s="3"/>
+      <c r="CT10" s="3"/>
+      <c r="CU10" s="3"/>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
+      <c r="CZ10" s="3"/>
+      <c r="DA10" s="3"/>
+      <c r="DB10" s="3"/>
+      <c r="DC10" s="3"/>
+      <c r="DD10" s="3"/>
+      <c r="DE10" s="3"/>
+      <c r="DF10" s="3"/>
+      <c r="DG10" s="3"/>
+      <c r="DH10" s="3"/>
+      <c r="DI10" s="3"/>
+      <c r="DJ10" s="3"/>
+      <c r="DK10" s="3"/>
+      <c r="DL10" s="3"/>
+      <c r="DM10" s="3"/>
+      <c r="DN10" s="3"/>
+      <c r="DO10" s="3"/>
+      <c r="DP10" s="3"/>
+      <c r="DQ10" s="3"/>
+      <c r="DR10" s="3"/>
+      <c r="DS10" s="3"/>
+      <c r="DT10" s="3"/>
+      <c r="DU10" s="3"/>
+      <c r="DV10" s="3"/>
+      <c r="DW10" s="3"/>
+      <c r="DX10" s="3"/>
+      <c r="DY10" s="3"/>
+      <c r="DZ10" s="3"/>
+      <c r="EA10" s="3"/>
+      <c r="EB10" s="3"/>
+      <c r="EC10" s="3"/>
+      <c r="ED10" s="3"/>
+      <c r="EE10" s="3"/>
+      <c r="EF10" s="3"/>
+      <c r="EG10" s="3"/>
+      <c r="EH10" s="3"/>
+      <c r="EI10" s="3"/>
+      <c r="EJ10" s="3"/>
+      <c r="EK10" s="3"/>
+      <c r="EL10" s="3"/>
+      <c r="EM10" s="3"/>
+      <c r="EN10" s="3"/>
+      <c r="EO10" s="3"/>
+      <c r="EP10" s="3"/>
+      <c r="EQ10" s="3"/>
+      <c r="ER10" s="3"/>
+      <c r="ES10" s="3"/>
+      <c r="ET10" s="3"/>
+      <c r="EU10" s="3"/>
+      <c r="EV10" s="3"/>
+      <c r="EW10" s="3"/>
+      <c r="EX10" s="3"/>
+      <c r="EY10" s="3"/>
+      <c r="EZ10" s="3"/>
+      <c r="FA10" s="3"/>
+      <c r="FB10" s="3"/>
+      <c r="FC10" s="3"/>
+      <c r="FD10" s="3"/>
+      <c r="FE10" s="3"/>
+      <c r="FF10" s="3"/>
+      <c r="FG10" s="3"/>
+      <c r="FH10" s="3"/>
+      <c r="FI10" s="3"/>
+      <c r="FJ10" s="3"/>
+      <c r="FK10" s="3"/>
+      <c r="FL10" s="3"/>
+      <c r="FM10" s="3"/>
+      <c r="FN10" s="3"/>
+      <c r="FO10" s="3"/>
+      <c r="FP10" s="3"/>
+      <c r="FQ10" s="3"/>
+      <c r="FR10" s="3"/>
+      <c r="FS10" s="3"/>
+      <c r="FT10" s="3"/>
+      <c r="FU10" s="3"/>
+      <c r="FV10" s="3"/>
+      <c r="FW10" s="3"/>
+      <c r="FX10" s="3"/>
+      <c r="FY10" s="3"/>
+      <c r="FZ10" s="3"/>
+      <c r="GA10" s="3"/>
+      <c r="GB10" s="3"/>
+      <c r="GC10" s="3"/>
+      <c r="GD10" s="3"/>
+      <c r="GE10" s="3"/>
+      <c r="GF10" s="3"/>
+      <c r="GG10" s="3"/>
+      <c r="GH10" s="3"/>
+      <c r="GI10" s="3"/>
+      <c r="GJ10" s="3"/>
+      <c r="GK10" s="3"/>
+      <c r="GL10" s="3"/>
+      <c r="GM10" s="3"/>
+      <c r="GN10" s="3"/>
+      <c r="GO10" s="3"/>
+      <c r="GP10" s="3"/>
+      <c r="GQ10" s="3"/>
+      <c r="GR10" s="3"/>
+      <c r="GS10" s="3"/>
+      <c r="GT10" s="3"/>
+      <c r="GU10" s="3"/>
+      <c r="GV10" s="3"/>
+      <c r="GW10" s="3"/>
+      <c r="GX10" s="3"/>
+      <c r="GY10" s="3"/>
+      <c r="GZ10" s="3"/>
+      <c r="HA10" s="3"/>
+      <c r="HB10" s="3"/>
+      <c r="HC10" s="3"/>
+      <c r="HD10" s="3"/>
+      <c r="HE10" s="3"/>
+      <c r="HF10" s="3"/>
+      <c r="HG10" s="3"/>
+      <c r="HH10" s="3"/>
+      <c r="HI10" s="3"/>
+      <c r="HJ10" s="3"/>
+      <c r="HK10" s="3"/>
+      <c r="HL10" s="3"/>
+      <c r="HM10" s="3"/>
+      <c r="HN10" s="3"/>
+      <c r="HO10" s="3"/>
+      <c r="HP10" s="3"/>
+      <c r="HQ10" s="3"/>
+      <c r="HR10" s="3"/>
+      <c r="HS10" s="3"/>
+      <c r="HT10" s="3"/>
+      <c r="HU10" s="3"/>
+      <c r="HV10" s="3"/>
+      <c r="HW10" s="3"/>
+      <c r="HX10" s="3"/>
+      <c r="HY10" s="3"/>
+      <c r="HZ10" s="3"/>
+      <c r="IA10" s="3"/>
+      <c r="IB10" s="3"/>
+      <c r="IC10" s="3"/>
+      <c r="ID10" s="3"/>
+      <c r="IE10" s="3"/>
+      <c r="IF10" s="3"/>
+      <c r="IG10" s="3"/>
+      <c r="IH10" s="3"/>
+      <c r="II10" s="3"/>
+      <c r="IJ10" s="3"/>
+      <c r="IK10" s="3"/>
+      <c r="IL10" s="3"/>
+      <c r="IM10" s="3"/>
+      <c r="IN10" s="3"/>
+      <c r="IO10" s="3"/>
+      <c r="IP10" s="3"/>
+      <c r="IQ10" s="3"/>
+      <c r="IR10" s="3"/>
+      <c r="IS10" s="3"/>
+      <c r="IT10" s="3"/>
+      <c r="IU10" s="3"/>
+      <c r="IV10" s="3"/>
+    </row>
+    <row r="11" spans="1:256" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
+      <c r="CV11" s="3"/>
+      <c r="CW11" s="3"/>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
+      <c r="CZ11" s="3"/>
+      <c r="DA11" s="3"/>
+      <c r="DB11" s="3"/>
+      <c r="DC11" s="3"/>
+      <c r="DD11" s="3"/>
+      <c r="DE11" s="3"/>
+      <c r="DF11" s="3"/>
+      <c r="DG11" s="3"/>
+      <c r="DH11" s="3"/>
+      <c r="DI11" s="3"/>
+      <c r="DJ11" s="3"/>
+      <c r="DK11" s="3"/>
+      <c r="DL11" s="3"/>
+      <c r="DM11" s="3"/>
+      <c r="DN11" s="3"/>
+      <c r="DO11" s="3"/>
+      <c r="DP11" s="3"/>
+      <c r="DQ11" s="3"/>
+      <c r="DR11" s="3"/>
+      <c r="DS11" s="3"/>
+      <c r="DT11" s="3"/>
+      <c r="DU11" s="3"/>
+      <c r="DV11" s="3"/>
+      <c r="DW11" s="3"/>
+      <c r="DX11" s="3"/>
+      <c r="DY11" s="3"/>
+      <c r="DZ11" s="3"/>
+      <c r="EA11" s="3"/>
+      <c r="EB11" s="3"/>
+      <c r="EC11" s="3"/>
+      <c r="ED11" s="3"/>
+      <c r="EE11" s="3"/>
+      <c r="EF11" s="3"/>
+      <c r="EG11" s="3"/>
+      <c r="EH11" s="3"/>
+      <c r="EI11" s="3"/>
+      <c r="EJ11" s="3"/>
+      <c r="EK11" s="3"/>
+      <c r="EL11" s="3"/>
+      <c r="EM11" s="3"/>
+      <c r="EN11" s="3"/>
+      <c r="EO11" s="3"/>
+      <c r="EP11" s="3"/>
+      <c r="EQ11" s="3"/>
+      <c r="ER11" s="3"/>
+      <c r="ES11" s="3"/>
+      <c r="ET11" s="3"/>
+      <c r="EU11" s="3"/>
+      <c r="EV11" s="3"/>
+      <c r="EW11" s="3"/>
+      <c r="EX11" s="3"/>
+      <c r="EY11" s="3"/>
+      <c r="EZ11" s="3"/>
+      <c r="FA11" s="3"/>
+      <c r="FB11" s="3"/>
+      <c r="FC11" s="3"/>
+      <c r="FD11" s="3"/>
+      <c r="FE11" s="3"/>
+      <c r="FF11" s="3"/>
+      <c r="FG11" s="3"/>
+      <c r="FH11" s="3"/>
+      <c r="FI11" s="3"/>
+      <c r="FJ11" s="3"/>
+      <c r="FK11" s="3"/>
+      <c r="FL11" s="3"/>
+      <c r="FM11" s="3"/>
+      <c r="FN11" s="3"/>
+      <c r="FO11" s="3"/>
+      <c r="FP11" s="3"/>
+      <c r="FQ11" s="3"/>
+      <c r="FR11" s="3"/>
+      <c r="FS11" s="3"/>
+      <c r="FT11" s="3"/>
+      <c r="FU11" s="3"/>
+      <c r="FV11" s="3"/>
+      <c r="FW11" s="3"/>
+      <c r="FX11" s="3"/>
+      <c r="FY11" s="3"/>
+      <c r="FZ11" s="3"/>
+      <c r="GA11" s="3"/>
+      <c r="GB11" s="3"/>
+      <c r="GC11" s="3"/>
+      <c r="GD11" s="3"/>
+      <c r="GE11" s="3"/>
+      <c r="GF11" s="3"/>
+      <c r="GG11" s="3"/>
+      <c r="GH11" s="3"/>
+      <c r="GI11" s="3"/>
+      <c r="GJ11" s="3"/>
+      <c r="GK11" s="3"/>
+      <c r="GL11" s="3"/>
+      <c r="GM11" s="3"/>
+      <c r="GN11" s="3"/>
+      <c r="GO11" s="3"/>
+      <c r="GP11" s="3"/>
+      <c r="GQ11" s="3"/>
+      <c r="GR11" s="3"/>
+      <c r="GS11" s="3"/>
+      <c r="GT11" s="3"/>
+      <c r="GU11" s="3"/>
+      <c r="GV11" s="3"/>
+      <c r="GW11" s="3"/>
+      <c r="GX11" s="3"/>
+      <c r="GY11" s="3"/>
+      <c r="GZ11" s="3"/>
+      <c r="HA11" s="3"/>
+      <c r="HB11" s="3"/>
+      <c r="HC11" s="3"/>
+      <c r="HD11" s="3"/>
+      <c r="HE11" s="3"/>
+      <c r="HF11" s="3"/>
+      <c r="HG11" s="3"/>
+      <c r="HH11" s="3"/>
+      <c r="HI11" s="3"/>
+      <c r="HJ11" s="3"/>
+      <c r="HK11" s="3"/>
+      <c r="HL11" s="3"/>
+      <c r="HM11" s="3"/>
+      <c r="HN11" s="3"/>
+      <c r="HO11" s="3"/>
+      <c r="HP11" s="3"/>
+      <c r="HQ11" s="3"/>
+      <c r="HR11" s="3"/>
+      <c r="HS11" s="3"/>
+      <c r="HT11" s="3"/>
+      <c r="HU11" s="3"/>
+      <c r="HV11" s="3"/>
+      <c r="HW11" s="3"/>
+      <c r="HX11" s="3"/>
+      <c r="HY11" s="3"/>
+      <c r="HZ11" s="3"/>
+      <c r="IA11" s="3"/>
+      <c r="IB11" s="3"/>
+      <c r="IC11" s="3"/>
+      <c r="ID11" s="3"/>
+      <c r="IE11" s="3"/>
+      <c r="IF11" s="3"/>
+      <c r="IG11" s="3"/>
+      <c r="IH11" s="3"/>
+      <c r="II11" s="3"/>
+      <c r="IJ11" s="3"/>
+      <c r="IK11" s="3"/>
+      <c r="IL11" s="3"/>
+      <c r="IM11" s="3"/>
+      <c r="IN11" s="3"/>
+      <c r="IO11" s="3"/>
+      <c r="IP11" s="3"/>
+      <c r="IQ11" s="3"/>
+      <c r="IR11" s="3"/>
+      <c r="IS11" s="3"/>
+      <c r="IT11" s="3"/>
+      <c r="IU11" s="3"/>
+      <c r="IV11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="32.7109375"/>
+    <col min="3" max="3" width="37.140625"/>
+    <col min="4" max="4" width="8.140625"/>
+    <col min="5" max="5" width="6.28515625"/>
+    <col min="6" max="6" width="55.28515625"/>
+    <col min="7" max="7" width="25.85546875"/>
+    <col min="8" max="8" width="18.85546875"/>
+    <col min="9" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="15" customWidth="1"/>
+    <col min="2" max="3" width="24" style="12"/>
+    <col min="4" max="4" width="9.85546875" style="12"/>
+    <col min="5" max="5" width="6.7109375" style="12"/>
+    <col min="6" max="6" width="34.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="24" style="12"/>
+    <col min="10" max="1025" width="11.5703125" style="12"/>
+    <col min="1026" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>6</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
+        <v>3</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <v>3</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10">
+        <v>2</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10">
+        <v>4</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>10</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
+        <v>2</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10">
+        <v>4</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>11</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10">
+        <v>2</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create Project" sheetId="1" r:id="rId1"/>
     <sheet name="Search and Filter Project" sheetId="2" r:id="rId2"/>
     <sheet name="Manage Account" sheetId="3" r:id="rId3"/>
     <sheet name="Setting" sheetId="4" r:id="rId4"/>
+    <sheet name="CreateUpdate Record" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
   <si>
     <t>S.N</t>
   </si>
@@ -504,6 +505,142 @@
   </si>
   <si>
     <t>The "Save" button should appear and the name of the consequence and the probability should be editable. The color in each box of the table should also be editable.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>DBA_CreateUpdate_Create</t>
+  </si>
+  <si>
+    <t>DBA_CreateUpdate_Accessibility</t>
+  </si>
+  <si>
+    <t>Validate that the unauthorized users i.e the field user cannot access the Create/Update records page.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The logged in user should have role of field user
+-&gt;The user should be assigned to atleast one project.</t>
+  </si>
+  <si>
+    <t>Click on a project in the project list</t>
+  </si>
+  <si>
+    <t>The user should be directed to the project details page.</t>
+  </si>
+  <si>
+    <t>Check if Create/Update Record page is there in the side menu.</t>
+  </si>
+  <si>
+    <t>The Create/Update Records options should not be there in the side menu bar of the field user.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be admin or In-house user
+-&gt;The user should be in Create/Update Records page.</t>
+  </si>
+  <si>
+    <t>Click on Work Type field.</t>
+  </si>
+  <si>
+    <t>All the work type belonging to that project only should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Select a work type from the drop down.</t>
+  </si>
+  <si>
+    <t>Click on the Work Operation field</t>
+  </si>
+  <si>
+    <t>All the work opeartion belonging to the selected work type only should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Select a work operation</t>
+  </si>
+  <si>
+    <t>Click on the Potential Description field</t>
+  </si>
+  <si>
+    <t>All the Potential indicents belonging to the selected work type and work operation only should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Select a potential incident</t>
+  </si>
+  <si>
+    <t>Validate that all a new record can be created.</t>
+  </si>
+  <si>
+    <t>Click on Before risk Consequence field</t>
+  </si>
+  <si>
+    <t>Click on the Before risk probability field</t>
+  </si>
+  <si>
+    <t>All the probability number from 1 to 5 should appear in the drop down</t>
+  </si>
+  <si>
+    <t>All the consequence number from 1 to 5 should appear in the drop down</t>
+  </si>
+  <si>
+    <t>Click on After risk Consequence field</t>
+  </si>
+  <si>
+    <t>Click on the After risk probability field</t>
+  </si>
+  <si>
+    <t>This field should be free text.</t>
+  </si>
+  <si>
+    <t>Click on the Consequence Type field</t>
+  </si>
+  <si>
+    <t>All the consequence type belonging to that project only should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Enter some free text in Incident Description field</t>
+  </si>
+  <si>
+    <t>Enter some free text in Barrier Description field</t>
+  </si>
+  <si>
+    <t>The barrier description should be free text.</t>
+  </si>
+  <si>
+    <t>Click on the barrier type field</t>
+  </si>
+  <si>
+    <t>Click on the Dependency field</t>
+  </si>
+  <si>
+    <t>All the barrier type should appear in the drop down list. The barrier types are Human, Technical and Ordanization.</t>
+  </si>
+  <si>
+    <t>All the Dependency should appear in the drop down list. The dependency types are Dependent and Independent.</t>
+  </si>
+  <si>
+    <t>Enter some free text in the Dependency Description field</t>
+  </si>
+  <si>
+    <t>The dependency description field should be free text.</t>
+  </si>
+  <si>
+    <t>Enter some free text in the Recommendation Description field</t>
+  </si>
+  <si>
+    <t>The recommendation description field should be free text.</t>
+  </si>
+  <si>
+    <t>Enter some free text in action assigned field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  action assigned field should be free text. </t>
+  </si>
+  <si>
+    <t>Click on the Status of action field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the status of action options should appear in the drop down. The options are </t>
   </si>
 </sst>
 </file>
@@ -4401,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,7 +4608,9 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
@@ -5425,4 +5564,3083 @@
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I263"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="12"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="12"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="12"/>
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="12"/>
+      <c r="I260" s="12"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+      <c r="I261" s="12"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="12"/>
+      <c r="I263" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="221">
   <si>
     <t>S.N</t>
   </si>
@@ -510,9 +510,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>DBA_CreateUpdate_Create</t>
-  </si>
-  <si>
     <t>DBA_CreateUpdate_Accessibility</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
     <t>Select a potential incident</t>
   </si>
   <si>
-    <t>Validate that all a new record can be created.</t>
-  </si>
-  <si>
     <t>Click on Before risk Consequence field</t>
   </si>
   <si>
@@ -640,7 +634,84 @@
     <t>Click on the Status of action field.</t>
   </si>
   <si>
-    <t xml:space="preserve">All the status of action options should appear in the drop down. The options are </t>
+    <t>All the status of action options should appear in the drop down. The options are Opened and Closed.</t>
+  </si>
+  <si>
+    <t>Enter some free text in the comment field.</t>
+  </si>
+  <si>
+    <t>The comment field should be free text.</t>
+  </si>
+  <si>
+    <t>Click on the Submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If all the requird fields are filled with legit data then the record should be created with a success message. </t>
+  </si>
+  <si>
+    <t>DBA_CreateUpdate_CreateRecord</t>
+  </si>
+  <si>
+    <t>Validate that a new record can be created.</t>
+  </si>
+  <si>
+    <t>DBA_CreateUpdate_FieldValidation</t>
+  </si>
+  <si>
+    <t>Validate that the form cannot be submitted without fill all the required fields.</t>
+  </si>
+  <si>
+    <t>Fill up the form but leave some of the required fields.</t>
+  </si>
+  <si>
+    <t>If all the required fields are not filled error message should be displayed and the field/s which is/are required to be filled should be highlighted with red color.</t>
+  </si>
+  <si>
+    <t>DBA_CreateUpdate_RecordUpdate</t>
+  </si>
+  <si>
+    <t>Validate that the record can be updated</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be admin or in-house user
+-&gt;The user should be in Create/Update Records fields.</t>
+  </si>
+  <si>
+    <t>Click on the Update Record button.</t>
+  </si>
+  <si>
+    <t>A pop up module should appear with the select project form. The form should contain work type, work operation and potential incident field.</t>
+  </si>
+  <si>
+    <t>Click on the work type field.</t>
+  </si>
+  <si>
+    <t>All the work type belonging to that project should be listed in the drop down.</t>
+  </si>
+  <si>
+    <t>All the work operation belonging to the selected work type should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Click on the work operation field.</t>
+  </si>
+  <si>
+    <t>Click on the Potential incident field</t>
+  </si>
+  <si>
+    <t>All the potential incident belonging to the selected work type and work operation should appear in the drop down.</t>
+  </si>
+  <si>
+    <t>Click on select button</t>
+  </si>
+  <si>
+    <t>If the record exists for the selected work type,work operation and potential incident the record should be loaded.</t>
+  </si>
+  <si>
+    <t>Edit some of the fields and click on submit button</t>
+  </si>
+  <si>
+    <t>If all the required fields are filled the selected record should be updated.</t>
   </si>
 </sst>
 </file>
@@ -5570,16 +5641,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
@@ -5619,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>11</v>
@@ -5631,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -5646,10 +5718,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -5663,10 +5735,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -5687,10 +5759,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -5699,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -5714,10 +5786,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5731,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -5746,10 +5818,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5763,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -5778,10 +5850,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5795,7 +5867,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -5810,10 +5882,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -5827,10 +5899,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5844,10 +5916,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -5861,10 +5933,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -5878,10 +5950,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -5895,10 +5967,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5912,10 +5984,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5929,10 +6001,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -5946,10 +6018,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -5963,10 +6035,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5980,10 +6052,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -5997,15 +6069,15 @@
         <v>18</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6014,66 +6086,100 @@
         <v>19</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="6">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="6">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
@@ -6088,36 +6194,60 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
@@ -6126,20 +6256,30 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
@@ -6148,42 +6288,64 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="6">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="E39" s="6">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>

--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="248">
   <si>
     <t>S.N</t>
   </si>
@@ -737,9 +737,6 @@
     <t>The selected project should be deleted.</t>
   </si>
   <si>
-    <t>DBA_Project_Edit</t>
-  </si>
-  <si>
     <t>Validate that the projects can be edited</t>
   </si>
   <si>
@@ -773,7 +770,47 @@
     <t>The project details should be updated and this update should reflect in the whole system.</t>
   </si>
   <si>
-    <t>DBA_</t>
+    <t>DBA_ProjectList_Edit</t>
+  </si>
+  <si>
+    <t>Check the page for buttons and links</t>
+  </si>
+  <si>
+    <t>DBA_ProjectList_OrgUserAccess</t>
+  </si>
+  <si>
+    <t>Validate that the org admin has the access to all the modules in Project list page.</t>
+  </si>
+  <si>
+    <t>Precondition:
+-&gt; The user should be Organisation admin.
+-&gt;The user should be in the project list page</t>
+  </si>
+  <si>
+    <t>DBA_ProjectList_AdminUserAccess</t>
+  </si>
+  <si>
+    <t>Validate that the admin user has access to the required modules in project list page.</t>
+  </si>
+  <si>
+    <t>Precondition:
+-&gt; The user should be Project admin.
+-&gt;The user should be assigned to atleast one project.
+-&gt;The user should be in the project list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organisational user should have the access to all the modules in the system. The org admin should be able to do the following actions in the project list page:
+1. view all the projects in the system.
+2. Edit and Delete projects.
+3. Create new projects.
+4. Access the Manage Account page.
+5. Access the project details page. </t>
+  </si>
+  <si>
+    <t>The Project  Admin user should be able to do the following actions in the project list page:   1. View all the projects that he/she is assigned to .
+2. Create new projects.
+3. Access the Manage Account page.
+4. Access the project details page.</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1197,7 @@
     <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1636,17 +1673,17 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1678,10 +1715,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1695,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1712,10 +1749,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1731,29 +1768,43 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
@@ -1768,25 +1819,43 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -2933,17 +3002,6 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project list" sheetId="6" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Setting" sheetId="4" r:id="rId3"/>
     <sheet name="CreateUpdate Record" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="270">
   <si>
     <t>S.N</t>
   </si>
@@ -260,18 +260,6 @@
   </si>
   <si>
     <t>The changes should be saved and a success message should be displayed.</t>
-  </si>
-  <si>
-    <t>DBA_ManageAccount_SelfRoleEdit</t>
-  </si>
-  <si>
-    <t>Validate that the admin is not able to edit their own role</t>
-  </si>
-  <si>
-    <t>Check weather the role of the current user is changeable or not.</t>
-  </si>
-  <si>
-    <t>The role of the current admin user should not be editable.</t>
   </si>
   <si>
     <t>DBA_Settings_Normal</t>
@@ -811,6 +799,99 @@
 2. Create new projects.
 3. Access the Manage Account page.
 4. Access the project details page.</t>
+  </si>
+  <si>
+    <t>DBA_ProjectList_InhouseUserAccess</t>
+  </si>
+  <si>
+    <t>Precondition:
+-&gt; The user should be In-house user.
+-&gt;The user should be assigned to atleast one project.
+-&gt;The user should be in the project list page</t>
+  </si>
+  <si>
+    <t>DBA_ProjectList_FieldUser</t>
+  </si>
+  <si>
+    <t>Validate that the In-house user has access to only the required modules in the project list page.</t>
+  </si>
+  <si>
+    <t>Validate that the field user has access to only the required modules in the project list page</t>
+  </si>
+  <si>
+    <t>Precondition:
+-&gt; The user should be field user.
+-&gt;The user should be assigned to atleast one project.
+-&gt;The user should be in the project list page</t>
+  </si>
+  <si>
+    <t>The in house user should be able to do the following actions in the project list page
+1. Only view the projects that he/she is assigned to
+2. Access the project details page.</t>
+  </si>
+  <si>
+    <t>The field user should be able to do the following actions in the project list page
+1. Only view the projects that he/she is assigned to
+2. Access the project details page.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_OrgAdminVisibility</t>
+  </si>
+  <si>
+    <t>Validate that the org admins are not visible in the user list of any project.</t>
+  </si>
+  <si>
+    <t>Check weather the org admin users are appearing in the users list.</t>
+  </si>
+  <si>
+    <t>The org admins should not appear in the user list of any project.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_ProjAdminVisibility</t>
+  </si>
+  <si>
+    <t>Validate that the logged in project admin is not visible in the user list of any project.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be  project admin.
+-&gt;The user should be in Manage account page.</t>
+  </si>
+  <si>
+    <t>Select a project in the list</t>
+  </si>
+  <si>
+    <t>All the general users assigned to that project along with their roles should be listed in the table.</t>
+  </si>
+  <si>
+    <t>Check weather the project admin himself/herself is appearing in the user list</t>
+  </si>
+  <si>
+    <t>The project admin himself/herself should not appear in the user list of any project. But if there are other project admins they should appear in the user list.</t>
+  </si>
+  <si>
+    <t>DBA_ManageAccount_ProjectSearch</t>
+  </si>
+  <si>
+    <t>Validate that the search in project list is working.</t>
+  </si>
+  <si>
+    <t>Preconditions:
+-&gt;The user should be Org admin or  project admin.
+-&gt;The user should be in Manage account page.
+-&gt; There should be atleast two projects assigned to the user.</t>
+  </si>
+  <si>
+    <t>Click on the search icon on top of the project list section.</t>
+  </si>
+  <si>
+    <t>A searcha bar should appear where you can enter free text.</t>
+  </si>
+  <si>
+    <t>Enter Project name or keywords.</t>
+  </si>
+  <si>
+    <t>The Project list should be filter according to the keywords entered.</t>
   </si>
 </sst>
 </file>
@@ -863,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -900,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1313,131 +1397,113 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1446,213 +1512,201 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>39</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>231</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>223</v>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1670,20 +1724,22 @@
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1698,15 +1754,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1715,15 +1771,15 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1732,152 +1788,162 @@
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
@@ -1892,25 +1958,43 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+    <row r="40" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
@@ -1925,25 +2009,43 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>11</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1958,25 +2060,43 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
@@ -1986,7 +2106,6 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -3003,6 +3122,61 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3010,25 +3184,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="32.7109375"/>
-    <col min="3" max="3" width="37.140625"/>
-    <col min="4" max="4" width="8.140625"/>
-    <col min="5" max="5" width="6.28515625"/>
-    <col min="6" max="6" width="55.28515625"/>
-    <col min="7" max="7" width="25.85546875"/>
-    <col min="8" max="8" width="18.85546875"/>
-    <col min="9" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.5703125" style="12"/>
+    <col min="2" max="2" width="32.7109375" style="9"/>
+    <col min="3" max="3" width="37.140625" style="9"/>
+    <col min="4" max="4" width="8.140625" style="9"/>
+    <col min="5" max="5" width="6.28515625" style="9"/>
+    <col min="6" max="6" width="55.28515625" style="9"/>
+    <col min="7" max="7" width="25.85546875" style="9"/>
+    <col min="8" max="8" width="18.85546875" style="9"/>
+    <col min="9" max="1025" width="11.5703125" style="9"/>
+    <col min="1026" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3056,8 +3233,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3081,8 +3258,8 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3098,8 +3275,8 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3115,271 +3292,1109 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+    <row r="9" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="16" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3445,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
@@ -3457,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3465,7 +4480,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3473,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3496,10 +4511,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
@@ -3508,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3522,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3538,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3551,10 +4566,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
@@ -3563,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3577,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3593,10 +4608,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3609,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3632,10 +4647,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
@@ -3644,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3658,10 +4673,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -3674,10 +4689,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -3690,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3703,10 +4718,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
@@ -3715,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3729,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3745,10 +4760,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3761,10 +4776,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3784,10 +4799,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
@@ -3796,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3810,10 +4825,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -3826,10 +4841,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -3842,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3858,10 +4873,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3881,10 +4896,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>10</v>
@@ -3893,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3907,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3923,10 +4938,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3939,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3955,10 +4970,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3978,10 +4993,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>10</v>
@@ -3990,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -4004,10 +5019,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -4020,10 +5035,10 @@
         <v>2</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -4036,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -4059,19 +5074,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E40" s="7">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4085,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -4101,10 +5116,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -4117,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -4133,10 +5148,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -4156,10 +5171,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>10</v>
@@ -4168,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4182,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -4198,10 +5213,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -4214,10 +5229,10 @@
         <v>3</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -4230,10 +5245,10 @@
         <v>4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -4253,10 +5268,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>10</v>
@@ -4265,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -4279,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -4295,10 +5310,10 @@
         <v>2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -4476,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -4488,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4503,10 +5518,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4520,10 +5535,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4544,10 +5559,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -4556,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -4571,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4588,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4603,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4620,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4635,10 +5650,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -4652,7 +5667,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4667,10 +5682,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -4684,10 +5699,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -4701,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -4718,10 +5733,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4735,10 +5750,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4752,10 +5767,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4769,10 +5784,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -4786,10 +5801,10 @@
         <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -4803,10 +5818,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4820,10 +5835,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4837,10 +5852,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4854,10 +5869,10 @@
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -4871,10 +5886,10 @@
         <v>19</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4888,10 +5903,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -4905,10 +5920,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -4918,10 +5933,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -4930,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -4945,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -4960,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -4984,10 +5999,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
@@ -4996,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -5011,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -5028,10 +6043,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5045,7 +6060,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -5060,10 +6075,10 @@
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -5077,7 +6092,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -5092,10 +6107,10 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -5109,10 +6124,10 @@
         <v>7</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -5126,10 +6141,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>

--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project list" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Safe Job Analysis Page" sheetId="8" r:id="rId6"/>
     <sheet name="Recommendation Page" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -5307,7 +5307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
@@ -15428,7 +15428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I827"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
+++ b/DBA(Digital barrier analysis)/TestCase_Import(user and startup).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Project list" sheetId="6" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1814,6 +1814,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2175,7 @@
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -15428,8 +15431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23985,8 +23988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
